--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F085BFBB-DA19-4DDE-BF43-7388A1557B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3461CF4-0962-460B-8D7E-658E254962A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{BC0C0818-8105-4DEB-9824-D61AE91921BD}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{AE35DCBF-61CD-400B-BC28-AAE354CCD1F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500C63CD-0DA8-4F87-BA94-619D9AAF1348}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1FD433-D29D-4641-AEC7-BA8702636348}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3461CF4-0962-460B-8D7E-658E254962A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5F1B9-A9F4-4FAD-B583-DD12F36B94CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{AE35DCBF-61CD-400B-BC28-AAE354CCD1F5}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{E2838A45-0C7D-40D0-9D4F-41141B6EB89E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1FD433-D29D-4641-AEC7-BA8702636348}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EF5BAE-F443-4E67-BCB4-0620E5D26056}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>2.3516386744665376</v>
+        <v>2.4267280159698745</v>
       </c>
     </row>
   </sheetData>
